--- a/table.xlsx
+++ b/table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>INSTANCE</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>2-APPROXIMATION</t>
-  </si>
-  <si>
-    <t>burma14.tsp</t>
   </si>
   <si>
     <t>dsj1000.tsp</t>
@@ -372,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,41 +422,6 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>2743</v>
-      </c>
-      <c r="C3">
-        <v>49200</v>
-      </c>
-      <c r="F3">
-        <v>200</v>
-      </c>
-      <c r="H3">
-        <v>2841</v>
-      </c>
-      <c r="I3">
-        <v>289900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>22579262</v>
-      </c>
-      <c r="C4">
-        <v>209127300</v>
-      </c>
-      <c r="F4">
-        <v>200</v>
-      </c>
-      <c r="H4">
-        <v>16069127</v>
-      </c>
-      <c r="I4">
-        <v>1461361400</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
